--- a/stock_historical_data/1mo/PRSMJOHNSN.NS.xlsx
+++ b/stock_historical_data/1mo/PRSMJOHNSN.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P264"/>
+  <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>2</v>
       </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>2</v>
       </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>2</v>
       </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>2</v>
       </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>2</v>
       </c>
+      <c r="Q105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>2</v>
       </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>2</v>
       </c>
+      <c r="Q129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7518,6 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7668,6 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7718,6 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7768,6 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7818,6 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7868,6 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7918,6 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7968,6 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8018,6 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8068,6 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8118,6 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8168,6 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8218,6 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8268,6 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8318,6 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8368,6 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8418,6 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8468,6 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8518,6 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8568,6 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8618,6 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8668,6 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8718,6 +9212,9 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8768,6 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8818,6 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8868,6 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8918,6 +9424,9 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8968,6 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9018,6 +9530,9 @@
       <c r="P171" t="n">
         <v>0</v>
       </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9068,6 +9583,9 @@
       <c r="P172" t="n">
         <v>0</v>
       </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9118,6 +9636,9 @@
       <c r="P173" t="n">
         <v>0</v>
       </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9168,6 +9689,9 @@
       <c r="P174" t="n">
         <v>0</v>
       </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9218,6 +9742,9 @@
       <c r="P175" t="n">
         <v>0</v>
       </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9268,6 +9795,9 @@
       <c r="P176" t="n">
         <v>0</v>
       </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9318,6 +9848,9 @@
       <c r="P177" t="n">
         <v>0</v>
       </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9368,6 +9901,9 @@
       <c r="P178" t="n">
         <v>0</v>
       </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9418,6 +9954,9 @@
       <c r="P179" t="n">
         <v>0</v>
       </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9468,6 +10007,9 @@
       <c r="P180" t="n">
         <v>0</v>
       </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9518,6 +10060,9 @@
       <c r="P181" t="n">
         <v>0</v>
       </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9568,6 +10113,9 @@
       <c r="P182" t="n">
         <v>0</v>
       </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9618,6 +10166,9 @@
       <c r="P183" t="n">
         <v>0</v>
       </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9668,6 +10219,9 @@
       <c r="P184" t="n">
         <v>0</v>
       </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9718,6 +10272,9 @@
       <c r="P185" t="n">
         <v>0</v>
       </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9768,6 +10325,9 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9818,6 +10378,9 @@
       <c r="P187" t="n">
         <v>0</v>
       </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9868,6 +10431,9 @@
       <c r="P188" t="n">
         <v>0</v>
       </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9918,6 +10484,9 @@
       <c r="P189" t="n">
         <v>0</v>
       </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9968,6 +10537,9 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10018,6 +10590,9 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10068,6 +10643,9 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10118,6 +10696,9 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10168,6 +10749,9 @@
       <c r="P194" t="n">
         <v>0</v>
       </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10218,6 +10802,9 @@
       <c r="P195" t="n">
         <v>0</v>
       </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10268,6 +10855,9 @@
       <c r="P196" t="n">
         <v>0</v>
       </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10318,6 +10908,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10368,6 +10961,9 @@
       <c r="P198" t="n">
         <v>0</v>
       </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10418,6 +11014,9 @@
       <c r="P199" t="n">
         <v>0</v>
       </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10468,6 +11067,9 @@
       <c r="P200" t="n">
         <v>0</v>
       </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10518,6 +11120,9 @@
       <c r="P201" t="n">
         <v>0</v>
       </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10568,6 +11173,9 @@
       <c r="P202" t="n">
         <v>0</v>
       </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10618,6 +11226,9 @@
       <c r="P203" t="n">
         <v>0</v>
       </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10668,6 +11279,9 @@
       <c r="P204" t="n">
         <v>0</v>
       </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10718,6 +11332,9 @@
       <c r="P205" t="n">
         <v>0</v>
       </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10768,6 +11385,9 @@
       <c r="P206" t="n">
         <v>0</v>
       </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10818,6 +11438,9 @@
       <c r="P207" t="n">
         <v>0</v>
       </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10868,6 +11491,9 @@
       <c r="P208" t="n">
         <v>0</v>
       </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10918,6 +11544,9 @@
       <c r="P209" t="n">
         <v>0</v>
       </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10968,6 +11597,9 @@
       <c r="P210" t="n">
         <v>0</v>
       </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11018,6 +11650,9 @@
       <c r="P211" t="n">
         <v>0</v>
       </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11068,6 +11703,9 @@
       <c r="P212" t="n">
         <v>0</v>
       </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11118,6 +11756,9 @@
       <c r="P213" t="n">
         <v>0</v>
       </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11168,6 +11809,9 @@
       <c r="P214" t="n">
         <v>0</v>
       </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11218,6 +11862,9 @@
       <c r="P215" t="n">
         <v>0</v>
       </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11268,6 +11915,9 @@
       <c r="P216" t="n">
         <v>0</v>
       </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11318,6 +11968,9 @@
       <c r="P217" t="n">
         <v>0</v>
       </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -11368,6 +12021,9 @@
       <c r="P218" t="n">
         <v>0</v>
       </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -11418,6 +12074,9 @@
       <c r="P219" t="n">
         <v>0</v>
       </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11468,6 +12127,9 @@
       <c r="P220" t="n">
         <v>0</v>
       </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11518,6 +12180,9 @@
       <c r="P221" t="n">
         <v>0</v>
       </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11568,6 +12233,9 @@
       <c r="P222" t="n">
         <v>0</v>
       </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11618,6 +12286,9 @@
       <c r="P223" t="n">
         <v>0</v>
       </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11668,6 +12339,9 @@
       <c r="P224" t="n">
         <v>0</v>
       </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11718,6 +12392,9 @@
       <c r="P225" t="n">
         <v>0</v>
       </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11768,6 +12445,9 @@
       <c r="P226" t="n">
         <v>0</v>
       </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11818,6 +12498,9 @@
       <c r="P227" t="n">
         <v>0</v>
       </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11868,6 +12551,9 @@
       <c r="P228" t="n">
         <v>0</v>
       </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11918,6 +12604,9 @@
       <c r="P229" t="n">
         <v>0</v>
       </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11968,6 +12657,9 @@
       <c r="P230" t="n">
         <v>0</v>
       </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12018,6 +12710,9 @@
       <c r="P231" t="n">
         <v>0</v>
       </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12068,6 +12763,9 @@
       <c r="P232" t="n">
         <v>0</v>
       </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12118,6 +12816,9 @@
       <c r="P233" t="n">
         <v>0</v>
       </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12168,6 +12869,9 @@
       <c r="P234" t="n">
         <v>0</v>
       </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12218,6 +12922,9 @@
       <c r="P235" t="n">
         <v>0</v>
       </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12268,6 +12975,9 @@
       <c r="P236" t="n">
         <v>0</v>
       </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -12318,6 +13028,9 @@
       <c r="P237" t="n">
         <v>0</v>
       </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -12368,6 +13081,9 @@
       <c r="P238" t="n">
         <v>0</v>
       </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -12418,6 +13134,9 @@
       <c r="P239" t="n">
         <v>0</v>
       </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -12468,6 +13187,9 @@
       <c r="P240" t="n">
         <v>0</v>
       </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12518,6 +13240,9 @@
       <c r="P241" t="n">
         <v>0</v>
       </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12568,6 +13293,9 @@
       <c r="P242" t="n">
         <v>0</v>
       </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12618,6 +13346,9 @@
       <c r="P243" t="n">
         <v>0</v>
       </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12668,6 +13399,9 @@
       <c r="P244" t="n">
         <v>0</v>
       </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12718,6 +13452,9 @@
       <c r="P245" t="n">
         <v>0</v>
       </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12768,6 +13505,9 @@
       <c r="P246" t="n">
         <v>0</v>
       </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12818,6 +13558,9 @@
       <c r="P247" t="n">
         <v>0</v>
       </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12868,6 +13611,9 @@
       <c r="P248" t="n">
         <v>0</v>
       </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12918,6 +13664,9 @@
       <c r="P249" t="n">
         <v>0</v>
       </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12968,6 +13717,9 @@
       <c r="P250" t="n">
         <v>0</v>
       </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13018,6 +13770,9 @@
       <c r="P251" t="n">
         <v>0</v>
       </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13068,6 +13823,9 @@
       <c r="P252" t="n">
         <v>0</v>
       </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13118,6 +13876,9 @@
       <c r="P253" t="n">
         <v>0</v>
       </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13168,6 +13929,9 @@
       <c r="P254" t="n">
         <v>0</v>
       </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13218,6 +13982,9 @@
       <c r="P255" t="n">
         <v>0</v>
       </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -13268,6 +14035,9 @@
       <c r="P256" t="n">
         <v>0</v>
       </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -13318,6 +14088,9 @@
       <c r="P257" t="n">
         <v>0</v>
       </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -13368,6 +14141,9 @@
       <c r="P258" t="n">
         <v>0</v>
       </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -13418,6 +14194,9 @@
       <c r="P259" t="n">
         <v>0</v>
       </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -13468,6 +14247,9 @@
       <c r="P260" t="n">
         <v>0</v>
       </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -13518,6 +14300,9 @@
       <c r="P261" t="n">
         <v>0</v>
       </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13568,6 +14353,9 @@
       <c r="P262" t="n">
         <v>0</v>
       </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13618,6 +14406,9 @@
       <c r="P263" t="n">
         <v>0</v>
       </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13668,6 +14459,60 @@
       <c r="P264" t="n">
         <v>0</v>
       </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B265" t="n">
+        <v>152.9499969482422</v>
+      </c>
+      <c r="C265" t="n">
+        <v>152.9499969482422</v>
+      </c>
+      <c r="D265" t="n">
+        <v>152.9499969482422</v>
+      </c>
+      <c r="E265" t="n">
+        <v>152.9499969482422</v>
+      </c>
+      <c r="F265" t="n">
+        <v>152.9499969482422</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I265" t="n">
+        <v>6</v>
+      </c>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>22</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/PRSMJOHNSN.NS.xlsx
+++ b/stock_historical_data/1mo/PRSMJOHNSN.NS.xlsx
@@ -14512,7 +14512,9 @@
       <c r="P265" t="n">
         <v>0</v>
       </c>
-      <c r="Q265" t="inlineStr"/>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/PRSMJOHNSN.NS.xlsx
+++ b/stock_historical_data/1mo/PRSMJOHNSN.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q265"/>
+  <dimension ref="A1:R274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>2</v>
       </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1210,7 +1251,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>2</v>
       </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1740,7 +1811,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1846,7 +1923,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1901,6 +1981,9 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2166,6 +2261,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2429,7 +2539,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2588,7 +2707,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2747,7 +2875,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2802,6 +2933,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2853,7 +2987,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2961,6 +3101,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3224,7 +3379,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3277,7 +3435,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3436,7 +3603,10 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3648,7 +3827,10 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>1</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>2</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>2</v>
       </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>1</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>2</v>
       </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>1</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>2</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>2</v>
       </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>1</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>2</v>
       </c>
+      <c r="R111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>1</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>1</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>2</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>0</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>2</v>
       </c>
+      <c r="R129" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>2</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>1</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>1</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>2</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>2</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>1</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>2</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>1</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>2</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>1</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>2</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>0</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>1</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>2</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>0</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>0</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>1</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>0</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>0</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>0</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>2</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>1</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>2</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>0</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>1</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>2</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>1</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>0</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>0</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14454,12 +15245,15 @@
         <v>18</v>
       </c>
       <c r="O264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P264" t="n">
         <v>0</v>
       </c>
       <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14515,6 +15309,477 @@
       <c r="Q265" t="n">
         <v>2</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B266" t="n">
+        <v>175.1499938964844</v>
+      </c>
+      <c r="C266" t="n">
+        <v>180.8300018310547</v>
+      </c>
+      <c r="D266" t="n">
+        <v>154</v>
+      </c>
+      <c r="E266" t="n">
+        <v>166.5700073242188</v>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="n">
+        <v>11773900</v>
+      </c>
+      <c r="H266" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I266" t="n">
+        <v>7</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>27</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B267" t="n">
+        <v>167.3999938964844</v>
+      </c>
+      <c r="C267" t="n">
+        <v>175.9900054931641</v>
+      </c>
+      <c r="D267" t="n">
+        <v>154.1499938964844</v>
+      </c>
+      <c r="E267" t="n">
+        <v>164.8099975585938</v>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="n">
+        <v>11079563</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I267" t="n">
+        <v>8</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>31</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B268" t="n">
+        <v>165</v>
+      </c>
+      <c r="C268" t="n">
+        <v>246</v>
+      </c>
+      <c r="D268" t="n">
+        <v>163.1499938964844</v>
+      </c>
+      <c r="E268" t="n">
+        <v>204.8699951171875</v>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="n">
+        <v>330641741</v>
+      </c>
+      <c r="H268" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I268" t="n">
+        <v>9</v>
+      </c>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>35</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>1</v>
+      </c>
+      <c r="R268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B269" t="n">
+        <v>205.6999969482422</v>
+      </c>
+      <c r="C269" t="n">
+        <v>208.1499938964844</v>
+      </c>
+      <c r="D269" t="n">
+        <v>179.5299987792969</v>
+      </c>
+      <c r="E269" t="n">
+        <v>192.8300018310547</v>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="n">
+        <v>38151079</v>
+      </c>
+      <c r="H269" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I269" t="n">
+        <v>10</v>
+      </c>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>40</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B270" t="n">
+        <v>193.6999969482422</v>
+      </c>
+      <c r="C270" t="n">
+        <v>209</v>
+      </c>
+      <c r="D270" t="n">
+        <v>180.1999969482422</v>
+      </c>
+      <c r="E270" t="n">
+        <v>188.4499969482422</v>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="n">
+        <v>15572277</v>
+      </c>
+      <c r="H270" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I270" t="n">
+        <v>11</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>44</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B271" t="n">
+        <v>189.3399963378906</v>
+      </c>
+      <c r="C271" t="n">
+        <v>207.6499938964844</v>
+      </c>
+      <c r="D271" t="n">
+        <v>168</v>
+      </c>
+      <c r="E271" t="n">
+        <v>170.0399932861328</v>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="n">
+        <v>11918419</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I271" t="n">
+        <v>12</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>48</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B272" t="n">
+        <v>169</v>
+      </c>
+      <c r="C272" t="n">
+        <v>172.5899963378906</v>
+      </c>
+      <c r="D272" t="n">
+        <v>127.25</v>
+      </c>
+      <c r="E272" t="n">
+        <v>141.0700073242188</v>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="n">
+        <v>13103465</v>
+      </c>
+      <c r="H272" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>2</v>
+      </c>
+      <c r="R272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B273" t="n">
+        <v>141.0700073242188</v>
+      </c>
+      <c r="C273" t="n">
+        <v>147</v>
+      </c>
+      <c r="D273" t="n">
+        <v>113.0100021362305</v>
+      </c>
+      <c r="E273" t="n">
+        <v>114.0199966430664</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="n">
+        <v>9721141</v>
+      </c>
+      <c r="H273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I273" t="n">
+        <v>2</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>5</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B274" t="n">
+        <v>114.0800018310547</v>
+      </c>
+      <c r="C274" t="n">
+        <v>140.6900024414062</v>
+      </c>
+      <c r="D274" t="n">
+        <v>105.3000030517578</v>
+      </c>
+      <c r="E274" t="n">
+        <v>135.4199981689453</v>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="n">
+        <v>9825574</v>
+      </c>
+      <c r="H274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I274" t="n">
+        <v>3</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>9</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
